--- a/SupplementaryMaterials/SupplementaryResults.xlsx
+++ b/SupplementaryMaterials/SupplementaryResults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MasterWork\Codes\DistributedAlgorithms\SupplementaryMaterials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inu_phd\Codes\DistributedAlgorithms\SupplementaryMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699136F8-26D0-450C-9963-31C92B3F7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF55225D-D4C8-48A9-B634-CC61087C4472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
     <t>Corresponding author: Hak-Man Kim</t>
   </si>
   <si>
-    <t>The distributed algorithm simulations of Case A</t>
+    <t>The distributed algorithm simulations</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
